--- a/DPI_Table_Audit/MstScheme_07-10-2024.xlsx
+++ b/DPI_Table_Audit/MstScheme_07-10-2024.xlsx
@@ -492,7 +492,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="G29" sqref="G29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
